--- a/SMTO_2015/Mode_Choice_Logit/Proposed/Proposed_Results.xlsx
+++ b/SMTO_2015/Mode_Choice_Logit/Proposed/Proposed_Results.xlsx
@@ -5,27 +5,35 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Research\PORPOS-TMG\SMTO_2015\Mode_Choice_Logit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\Documents\Ethan\TMG\Summer 2020\Research\PORPOS-TMG\SMTO_2015\Mode_Choice_Logit\Proposed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A91D4DF5-DED2-4CFF-A7D2-A42B23F2BA40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395A565C-B60B-4967-8604-D5D3AE040644}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>***</t>
   </si>
@@ -103,18 +111,35 @@
   </si>
   <si>
     <t>Obs\Pred</t>
+  </si>
+  <si>
+    <t>Observed</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,10 +171,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -157,9 +183,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,12 +469,12 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:I12"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -459,7 +488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -484,8 +513,14 @@
       <c r="I2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -510,9 +545,16 @@
       <c r="I3">
         <v>676</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J3" s="7">
+        <f>SUM(G3:I3)</f>
+        <v>3805</v>
+      </c>
+      <c r="K3" s="8">
+        <f>G3/J3</f>
+        <v>0.81892247043363997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -537,9 +579,16 @@
       <c r="I4">
         <v>1191</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J4" s="7">
+        <f t="shared" ref="J4:J5" si="0">SUM(G4:I4)</f>
+        <v>1313</v>
+      </c>
+      <c r="K4" s="8">
+        <f>H4/J4</f>
+        <v>6.1690784463061692E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -564,8 +613,16 @@
       <c r="I5" s="5">
         <v>8813</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>9239</v>
+      </c>
+      <c r="K5" s="8">
+        <f>I5/J5</f>
+        <v>0.95389111375690006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -578,8 +635,31 @@
       <c r="D6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="7">
+        <f>SUM(G3:G5)</f>
+        <v>3517</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" ref="H6" si="1">SUM(H3:H5)</f>
+        <v>160</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" ref="I6:J6" si="2">SUM(I3:I5)</f>
+        <v>10680</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="2"/>
+        <v>14357</v>
+      </c>
+      <c r="K6" s="8">
+        <f>SUM(G3,H4,I5)/J6</f>
+        <v>0.83652573657449325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -595,7 +675,7 @@
       <c r="F7" s="1"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -613,7 +693,7 @@
       </c>
       <c r="K8" s="1"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -638,9 +718,14 @@
       <c r="I9" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -665,9 +750,16 @@
       <c r="I10" s="4">
         <v>944.56610000000001</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J10" s="7">
+        <f>SUM(G10:I10)</f>
+        <v>3805.0000100000002</v>
+      </c>
+      <c r="K10" s="8">
+        <f>G10/J10</f>
+        <v>0.74315947767895019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -692,9 +784,16 @@
       <c r="I11" s="4">
         <v>1007.8446</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J11" s="7">
+        <f t="shared" ref="J11:J12" si="3">SUM(G11:I11)</f>
+        <v>1313.0000399999999</v>
+      </c>
+      <c r="K11" s="8">
+        <f>H11/J11</f>
+        <v>0.20483775461271123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -719,8 +818,16 @@
       <c r="I12" s="6">
         <v>8272.3546000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="J12" s="7">
+        <f t="shared" si="3"/>
+        <v>9238.9999900000003</v>
+      </c>
+      <c r="K12" s="8">
+        <f>I12/J12</f>
+        <v>0.89537337471087064</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -732,6 +839,29 @@
       </c>
       <c r="D13" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="4">
+        <f>SUM(G10:G12)</f>
+        <v>3168.0867800000005</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" ref="H13:I13" si="4">SUM(H10:H12)</f>
+        <v>964.14796000000001</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="4"/>
+        <v>10224.765300000001</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" ref="J13" si="5">SUM(J10:J12)</f>
+        <v>14357.000040000001</v>
+      </c>
+      <c r="K13" s="8">
+        <f>SUM(G10,H11,I12)/J13</f>
+        <v>0.7918805020773686</v>
       </c>
     </row>
   </sheetData>
